--- a/PREGAME/1_ELICITACION/1.3 HISTORIAS DE USUARIO/G3_HU V1.3.xlsx
+++ b/PREGAME/1_ELICITACION/1.3 HISTORIAS DE USUARIO/G3_HU V1.3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27321"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uespe-my.sharepoint.com/personal/incedillo_espe_edu_ec/Documents/15390_G3_Aseguramiento de la calidad/Proyecto Documentacion/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\UNIVERSIDAD\Aseguramiento de la Calidad del Software\Segundo Parcial\15390_G3_ACSW\PREGAME\1_ELICITACION\1.3 HISTORIAS DE USUARIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F7A322C-1E57-440A-B0CB-7B970047E750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26EF4E7-7BE7-447F-A58B-2B6CF1133FC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="16215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -28,10 +28,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -222,7 +222,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,7 +265,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -293,11 +293,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -323,19 +338,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -363,6 +373,14 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -668,11 +686,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="80.099999999999994" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="31.28515625" style="3" customWidth="1"/>
@@ -687,7 +705,7 @@
     <col min="12" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="8" customFormat="1" ht="29.1">
+    <row r="1" spans="1:11" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -722,14 +740,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="5" customFormat="1" ht="82.5" customHeight="1">
+    <row r="2" spans="1:11" s="5" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -757,14 +775,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="5" customFormat="1" ht="105" customHeight="1">
+    <row r="3" spans="1:11" s="5" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="9" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -792,14 +810,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="5" customFormat="1" ht="73.5" customHeight="1">
+    <row r="4" spans="1:11" s="5" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="9" t="s">
         <v>31</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -827,14 +845,14 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="7" customFormat="1" ht="90" customHeight="1">
+    <row r="5" spans="1:11" s="7" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="9" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="7" t="s">
@@ -862,14 +880,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="7" customFormat="1" ht="72" customHeight="1">
+    <row r="6" spans="1:11" s="7" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="9" t="s">
         <v>46</v>
       </c>
       <c r="D6" s="7" t="s">
@@ -897,14 +915,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="7" customFormat="1" ht="98.25" customHeight="1">
+    <row r="7" spans="1:11" s="7" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="9" t="s">
         <v>53</v>
       </c>
       <c r="D7" s="7" t="s">
@@ -934,22 +952,22 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:K1" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K8">
-      <sortCondition sortBy="cellColor" ref="H1" dxfId="0"/>
+    <sortState ref="A2:K8">
+      <sortCondition sortBy="cellColor" ref="H1" dxfId="3"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K7">
+  <sortState ref="A2:K7">
     <sortCondition ref="A1:A7"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Baja"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Media"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"Alta"</formula>
     </cfRule>
   </conditionalFormatting>
